--- a/answer (1).xlsx
+++ b/answer (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziphi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F0FFC0-BF84-4124-8313-F8A90EDC4010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACDE79F-E879-4512-9BEC-C9A80E34F336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="لها" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>الوصف</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>المبلغ</t>
+  </si>
+  <si>
+    <t>مصاريف أيسل (مايو)</t>
+  </si>
+  <si>
+    <t>قسط السيارة (مايو)</t>
+  </si>
+  <si>
+    <t>قسط الجمعية (مايو)</t>
+  </si>
+  <si>
+    <t>مصاريف أيسل (يونيو)</t>
+  </si>
+  <si>
+    <t>قسط السيارة (يونيو)</t>
+  </si>
+  <si>
+    <t>قسط الجمعية (يونيو)</t>
   </si>
 </sst>
 </file>
@@ -130,7 +148,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,42 +513,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>178</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -537,22 +556,62 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
         <v>240</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <v>33660</v>
       </c>
     </row>
@@ -563,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,42 +648,50 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>2700</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>4000</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>15000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>27700</v>
+      <c r="B8">
+        <v>27920</v>
       </c>
     </row>
   </sheetData>
@@ -636,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCCFEBD-7648-47DC-B04D-5A8700039E6C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,8 +722,8 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <f>عليها!B7</f>
-        <v>27700</v>
+        <f>عليها!B8</f>
+        <v>27920</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -664,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>لها!B17</f>
+        <f>لها!B21</f>
         <v>33660</v>
       </c>
     </row>
@@ -674,7 +741,7 @@
       </c>
       <c r="B4">
         <f>B3-B2</f>
-        <v>5960</v>
+        <v>5740</v>
       </c>
     </row>
   </sheetData>
